--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
   <si>
     <t>sample_id</t>
   </si>
@@ -184,6 +184,18 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
   </si>
   <si>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
+  </si>
+  <si>
     <t>Ethanol</t>
   </si>
   <si>
@@ -202,48 +214,42 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
   </si>
   <si>
-    <t>Neutral Buffered Formalin (NBF)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
-  </si>
-  <si>
-    <t>PFA</t>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>MACS tissue storage solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
+  </si>
+  <si>
+    <t>Fresh frozen CMC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
+  </si>
+  <si>
+    <t>Inflated (OCT)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
+  </si>
+  <si>
+    <t>Fresh frozen gelatin</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
+  </si>
+  <si>
+    <t>PFA (Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
   </si>
   <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
-    <t>MACS tissue storage solution</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
-  </si>
-  <si>
-    <t>Fresh frozen CMC</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
-  </si>
-  <si>
-    <t>Inflated (OCT)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
-  </si>
-  <si>
-    <t>Fresh frozen gelatin</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
-  </si>
-  <si>
     <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
   </si>
   <si>
@@ -388,24 +394,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
   </si>
   <si>
-    <t>Paraffin embedded (FFPE)</t>
+    <t>DMSO (with serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
   </si>
   <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -502,7 +508,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:15:00-07:00</t>
+    <t>2023-08-04T07:35:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -634,51 +640,51 @@
         <v>13</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="R2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +697,7 @@
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$21</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
@@ -750,30 +756,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +842,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,6 +1014,14 @@
       </c>
       <c r="B21" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1025,82 +1039,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1193,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -1195,10 +1209,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1211,106 +1225,106 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1328,90 +1342,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1429,34 +1443,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1474,26 +1488,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -508,7 +508,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:35:19-07:00</t>
+    <t>2023-08-11T13:11:31-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -689,7 +689,7 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThan" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -702,7 +702,7 @@
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -715,18 +715,18 @@
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'thickness_unit'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -124,8 +124,8 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The string that serves as the definitive identifier for the metadata schema
-version and is readily interpretable by computers for data validation and
+        <t>(Required) The string that serves as the definitive identifier for the metadata
+schema version and is readily interpretable by computers for data validation and
 processing.</t>
       </text>
     </comment>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>sample_id</t>
   </si>
@@ -190,36 +190,36 @@
     <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
-    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-Lysine-Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
-  </si>
-  <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
     <t>MACS tissue storage solution</t>
   </si>
   <si>
@@ -337,6 +337,72 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185338</t>
   </si>
   <si>
+    <t>Frozen at -20 degrees celsius</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
+  </si>
+  <si>
+    <t>Frozen on dry ice</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
+  </si>
+  <si>
+    <t>processing_time_value</t>
+  </si>
+  <si>
+    <t>processing_time_unit</t>
+  </si>
+  <si>
+    <t>storage_medium</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
+  </si>
+  <si>
+    <t>DMSO (no serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
+  </si>
+  <si>
+    <t>Tris-EDTA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>DMSO (serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
+  </si>
+  <si>
+    <t>storage_method</t>
+  </si>
+  <si>
     <t>Incubated at 37 degrees celsius</t>
   </si>
   <si>
@@ -349,78 +415,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000132</t>
   </si>
   <si>
-    <t>Frozen at -20 degrees celsius</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
-  </si>
-  <si>
-    <t>Frozen on dry ice</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
-  </si>
-  <si>
     <t>Stored in refrigerator</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
   </si>
   <si>
-    <t>processing_time_value</t>
-  </si>
-  <si>
-    <t>processing_time_unit</t>
-  </si>
-  <si>
-    <t>storage_medium</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
-  </si>
-  <si>
-    <t>DMSO (no serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
-  </si>
-  <si>
-    <t>Tris-EDTA</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
-  </si>
-  <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
-    <t>FFPE (Paraffin embedded)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
-  </si>
-  <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
-  </si>
-  <si>
-    <t>storage_method</t>
-  </si>
-  <si>
     <t>quality_criteria</t>
   </si>
   <si>
@@ -451,12 +451,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000015</t>
   </si>
   <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000018</t>
-  </si>
-  <si>
     <t>section_index_number</t>
   </si>
   <si>
@@ -466,12 +460,6 @@
     <t>area_unit</t>
   </si>
   <si>
-    <t>cm^2</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000081</t>
-  </si>
-  <si>
     <t>um^2</t>
   </si>
   <si>
@@ -508,7 +496,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:11:31-07:00</t>
+    <t>2023-09-08T20:49:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -643,16 +631,16 @@
         <v>58</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s" s="1">
         <v>95</v>
@@ -667,24 +655,24 @@
         <v>98</v>
       </c>
       <c r="N1" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s" s="1">
         <v>107</v>
       </c>
-      <c r="O1" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>109</v>
-      </c>
       <c r="Q1" t="s" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="R2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -700,14 +688,14 @@
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+      <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_medium'!$A$1:$A$18</formula1>
@@ -720,7 +708,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'thickness_unit'!$A$1:$A$4</formula1>
+      <formula1>'thickness_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
@@ -731,7 +719,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'area_unit'!$A$1:$A$3</formula1>
+      <formula1>'area_unit'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -756,30 +744,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1093,30 +1081,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1124,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1140,33 +1104,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1193,10 +1141,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1209,26 +1157,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1249,34 +1197,34 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -1289,18 +1237,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1382,42 +1330,42 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -1434,51 +1382,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1488,26 +1391,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -29,22 +29,17 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t/>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1">
-      <text>
         <t>(Required) Unique identifier for the source (parent) from which the sample was
 taken. An example value would be HBM122.EFGH.789.</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="B1" authorId="1">
       <text>
         <t>(Required) The HuBMAP ID for the sample assigned by the ingest portal. Example:
 HBM743.CKJW.876</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="C1" authorId="1">
       <text>
         <t>An internal field labs can use it to add whatever ID(s) they want or need for
 dataset validation and tracking. This could be a single ID (e.g.,
@@ -54,18 +49,18 @@
 provider are also used by another.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="D1" authorId="1">
       <text>
         <t>(Required) How long was the source material (parent) stored, prior to this
 sample being processed.</t>
       </text>
     </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <t>(Required) The time duration unit of measurement</t>
+      </text>
+    </comment>
     <comment ref="F1" authorId="1">
-      <text>
-        <t>(Required) The time duration unit of measurement</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
 procurement and preparation. For example for an imaging assay, the protocol
@@ -74,39 +69,39 @@
 create the OME-TIFF file.</t>
       </text>
     </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <t>(Required) The medium used during the sample preparation</t>
+      </text>
+    </comment>
     <comment ref="H1" authorId="1">
-      <text>
-        <t>(Required) The medium used during the sample preparation</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="1">
       <text>
         <t>(Required) The condition by which the preparation occurred, such as was the
 sample placed in dry ice during the preparation.</t>
       </text>
     </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <t>How long the tissue was being handled before the initial preservation.</t>
+      </text>
+    </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>How long the tissue was being handled before the initial preservation.</t>
+        <t>The time unit of measurement</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>(Required) What was the sample preserved in.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
-      <text>
-        <t>(Required) What was the sample preserved in.</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="1">
       <text>
         <t>(Required) The method by which the sample was stored, after preparation and
 before the assay was performed.</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to
 cell lysis or defined by known parameters such as wells with several cells or no
@@ -114,45 +109,45 @@
 specificity such as "debris", "clump", "low clump".</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="N1" authorId="1">
       <text>
         <t>histopathological reporting of key variables that are important for the tissue
 (absence of necrosis, comment on composition, significant pathology description,
 high level inflammation/fibrosis assessment, etc.)</t>
       </text>
     </comment>
+    <comment ref="O1" authorId="1">
+      <text>
+        <t>(Required) Thickness of the sample section.</t>
+      </text>
+    </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) Thickness of the sample section.</t>
+        <t>(Required) The thickness unit of measuement</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The thickness unit of measuement</t>
+        <t>(Required) The index number for the section if the sample is a single section.</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) The index number for the section if the sample is a single section.</t>
+        <t>The area of the sample section.</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>The area of the sample section.</t>
+        <t>The area unit of measurement</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
-      <text>
-        <t>The area unit of measurement</t>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="1">
       <text>
         <t>Miscellaneous details about the sample, not captured in the existing metadata
 fields.</t>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -164,10 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="127">
-  <si>
-    <t>header_info</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="126">
   <si>
     <t>source_id</t>
   </si>
@@ -538,7 +530,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-09-23T12:04:58-07:00</t>
+    <t>2023-10-03T09:51:12-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -597,12 +589,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -634,34 +625,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="11.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="2" max="2" style="3" width="9.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="10.0078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="19.5625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="20.66015625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="21.1484375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="19.98828125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="15.46875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="14.1875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="17.671875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="15.00390625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="13.84375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="21.1328125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="10.40625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="9.25" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="5.94921875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="9.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="10.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="6.33984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="28.5625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="27.40234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="19.5625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="20.66015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="21.1484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="19.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="15.8984375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="15.46875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.1875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="17.671875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="21.1328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="10.40625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="9.25" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="5.94921875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,16 +671,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s" s="1">
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s" s="1">
         <v>75</v>
@@ -699,10 +689,10 @@
         <v>76</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s" s="1">
         <v>99</v>
@@ -714,7 +704,7 @@
         <v>101</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="R1" t="s" s="1">
         <v>109</v>
@@ -723,64 +713,61 @@
         <v>110</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="U1" t="s" s="1">
         <v>116</v>
       </c>
-      <c r="V1" t="s" s="1">
+    </row>
+    <row r="2">
+      <c r="U2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="V2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$7</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_medium'!$A$1:$A$18</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'thickness_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'area_unit'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -806,30 +793,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -847,42 +834,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -900,178 +887,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
         <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1089,58 +1076,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1158,26 +1145,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1195,146 +1182,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
         <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1352,90 +1339,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
         <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1453,26 +1440,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1490,18 +1477,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -30,7 +30,7 @@
     <comment ref="A1" authorId="1">
       <text>
         <t>(Required) Unique identifier for the source (parent) from which the sample was
-taken. An example value would be HBM122.EFGH.789.</t>
+taken. Example: HBM122.EFGH.789.</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -51,22 +51,23 @@
     </comment>
     <comment ref="D1" authorId="1">
       <text>
+        <t>(Required) DOI for the protocols.io page that describes the assay or sample
+procurment and preparation. For example for an imaging assay, the protocol might
+include staining of a section through the creation of an OME-TIFF file. In this
+case the protocol would include any image processing steps required to create
+the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
         <t>(Required) How long was the source material (parent) stored, prior to this
 sample being processed.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="F1" authorId="1">
       <text>
         <t>(Required) The time duration unit of measurement</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1">
-      <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might include staining of a section through the creation of an OME-TIFF file. In
-this case the protocol would include any image processing steps required to
-create the OME-TIFF file.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
@@ -170,6 +171,9 @@
     <t>lab_id</t>
   </si>
   <si>
+    <t>preparation_protocol_doi</t>
+  </si>
+  <si>
     <t>source_storage_duration_value</t>
   </si>
   <si>
@@ -206,9 +210,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000031</t>
   </si>
   <si>
-    <t>preparation_protocol_doi</t>
-  </si>
-  <si>
     <t>preparation_medium</t>
   </si>
   <si>
@@ -530,7 +531,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T09:51:12-07:00</t>
+    <t>2023-10-05T17:10:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -597,8 +598,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -634,9 +635,9 @@
     <col min="1" max="1" style="2" width="9.5546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" style="3" width="10.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" style="4" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="28.5625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="27.40234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" style="8" width="19.5625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" style="9" width="20.66015625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" style="10" width="21.1484375" customWidth="true" bestFit="true"/>
@@ -671,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s" s="1">
         <v>16</v>
@@ -726,11 +727,11 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
@@ -834,42 +835,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1145,26 +1146,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -29,14 +29,14 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique identifier for the source (parent) from which the sample was
-taken. Example: HBM122.EFGH.789.</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier for the source (parent) from which
+the sample was taken. Example: HBM122.EFGH.789 or SNT234.RTYU.119</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>(Required) The HuBMAP ID for the sample assigned by the ingest portal. Example:
-HBM743.CKJW.876</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier for the sample assigned by the
+ingest portal. Example: HBM743.CKJW.876 or SNT923.UYTE.122</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
@@ -531,7 +531,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-05T17:10:03-07:00</t>
+    <t>2023-10-27T18:07:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -15,7 +15,8 @@
     <sheet name="storage_method" r:id="rId9" sheetId="7"/>
     <sheet name="thickness_unit" r:id="rId10" sheetId="8"/>
     <sheet name="area_unit" r:id="rId11" sheetId="9"/>
-    <sheet name=".metadata" r:id="rId12" sheetId="10"/>
+    <sheet name="is_rehydrated" r:id="rId12" sheetId="10"/>
+    <sheet name=".metadata" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
@@ -144,11 +145,16 @@
     </comment>
     <comment ref="T1" authorId="1">
       <text>
+        <t>Was the section rehydrated?</t>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="1">
+      <text>
         <t>Miscellaneous details about the sample, not captured in the existing metadata
 fields.</t>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="V1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -160,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="129">
   <si>
     <t>source_id</t>
   </si>
@@ -219,30 +225,30 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
   </si>
   <si>
-    <t>NBF (Neutral Buffered Formalin)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Neutral Buffered Formalin (NBF)</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
-  </si>
-  <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
     <t>Inflated (Agarose)</t>
   </si>
   <si>
@@ -507,6 +513,15 @@
     <t>http://purl.obolibrary.org/obo/UO_0000082</t>
   </si>
   <si>
+    <t>is_rehydrated</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -531,7 +546,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:07:18-07:00</t>
+    <t>2023-12-13T11:46:15-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -590,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -613,6 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -626,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -651,8 +667,9 @@
     <col min="17" max="17" style="18" width="21.1328125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" style="19" width="10.40625" customWidth="true" bestFit="true"/>
     <col min="19" max="19" style="20" width="9.25" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="5.94921875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="13.0703125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="5.94921875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -717,16 +734,19 @@
         <v>115</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="U2" t="s">
-        <v>117</v>
+      <c r="V2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
@@ -771,6 +791,9 @@
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'area_unit'!$A$1:$A$2</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'is_rehydrated'!$A$1:$A$2</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -779,6 +802,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -794,30 +840,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1215,10 +1261,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>source_id</t>
   </si>
@@ -390,6 +390,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
   </si>
   <si>
+    <t>Stored in refrigerator</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
+  </si>
+  <si>
     <t>processing_time_value</t>
   </si>
   <si>
@@ -456,12 +462,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000132</t>
   </si>
   <si>
-    <t>Stored in refrigerator</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
-  </si>
-  <si>
     <t>quality_criteria</t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-12-13T11:46:15-08:00</t>
+    <t>2024-02-21T09:25:13-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -648,28 +648,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="10.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="19.5625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="20.66015625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="21.1484375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="19.98828125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="15.46875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="14.1875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="17.671875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="15.00390625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="13.84375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="21.1328125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="10.40625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="9.25" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="13.0703125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="5.94921875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="8.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="16.875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="17.82421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="18.2421875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="17.2421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="13.71484375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="13.34375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="12.23828125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="15.24609375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="12.94140625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="11.94140625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="18.23046875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="8.9765625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="7.9765625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="11.2734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="5.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -698,16 +698,16 @@
         <v>61</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M1" t="s" s="1">
         <v>98</v>
@@ -741,7 +741,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="23">
         <v>120</v>
       </c>
     </row>
@@ -758,7 +758,7 @@
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$7</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -810,12 +810,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>117</v>
       </c>
     </row>
@@ -832,37 +832,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="79.25390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.48046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -880,42 +880,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -933,178 +933,178 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>60</v>
       </c>
     </row>
@@ -1115,66 +1115,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1191,26 +1199,26 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1228,146 +1236,146 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
+      <c r="A2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
+      <c r="A6" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
+      <c r="A9" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
+      <c r="A11" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
+      <c r="A12" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
+      <c r="A14" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
+      <c r="A15" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>60</v>
       </c>
     </row>
@@ -1385,90 +1393,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
+      <c r="A6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
+      <c r="A7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
+      <c r="A10" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>52</v>
       </c>
     </row>
@@ -1486,26 +1494,26 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>107</v>
       </c>
     </row>
@@ -1523,18 +1531,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>114</v>
       </c>
     </row>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
   <si>
     <t>source_id</t>
   </si>
@@ -219,6 +219,90 @@
     <t>preparation_medium</t>
   </si>
   <si>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Trumps fixative</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000331</t>
+  </si>
+  <si>
+    <t>Inflated (OCT)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
+  </si>
+  <si>
+    <t>DMEM</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185409</t>
+  </si>
+  <si>
+    <t>PFA (Paraformaldehyde)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
+  </si>
+  <si>
+    <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000116</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Fresh frozen OCT</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000126</t>
+  </si>
+  <si>
+    <t>2% PFA/2.5% Glutaraldehyde</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000332</t>
+  </si>
+  <si>
+    <t>Bouin's</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000140</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_17790</t>
+  </si>
+  <si>
+    <t>PAXgene tissue kit (PXT)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185113</t>
+  </si>
+  <si>
     <t>PBS</t>
   </si>
   <si>
@@ -231,24 +315,6 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
   </si>
   <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
-    <t>Neutral Buffered Formalin (NBF)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
-  </si>
-  <si>
     <t>Inflated (Agarose)</t>
   </si>
   <si>
@@ -273,48 +339,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
   </si>
   <si>
-    <t>Inflated (OCT)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
-  </si>
-  <si>
     <t>Fresh frozen gelatin</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
   </si>
   <si>
-    <t>PFA (Paraformaldehyde)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
-  </si>
-  <si>
-    <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000116</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
-    <t>Fresh frozen OCT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000126</t>
-  </si>
-  <si>
     <t>RNAlater</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63348</t>
   </si>
   <si>
+    <t>Biops buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000330</t>
+  </si>
+  <si>
     <t>Fixed frozen OCT (Cytofix/Cytoperm)</t>
   </si>
   <si>
@@ -327,30 +369,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C41132</t>
   </si>
   <si>
-    <t>Bouin's</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000140</t>
-  </si>
-  <si>
     <t>Fixed frozen OCT (PFA, sucrose protected)</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000147</t>
   </si>
   <si>
-    <t>Methanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_17790</t>
-  </si>
-  <si>
-    <t>PAXgene tissue kit (PXT)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185113</t>
-  </si>
-  <si>
     <t>preparation_condition</t>
   </si>
   <si>
@@ -435,6 +459,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
   </si>
   <si>
+    <t>Cyro-EM</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
+  </si>
+  <si>
     <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
@@ -546,7 +576,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-21T09:25:13-08:00</t>
+    <t>2024-03-12T09:42:42-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -695,54 +725,54 @@
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="V2" t="s" s="23">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +785,7 @@
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$22</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$8</formula1>
@@ -768,7 +798,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$18</formula1>
+      <formula1>'storage_medium'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$11</formula1>
@@ -811,12 +841,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -840,30 +870,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +956,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1106,6 +1136,38 @@
       </c>
       <c r="B22" t="s" s="0">
         <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1123,66 +1185,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1237,146 +1299,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>60</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1394,90 +1472,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1495,26 +1573,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1532,18 +1610,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -453,18 +453,18 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
   </si>
   <si>
+    <t>Cryo-EM</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
+  </si>
+  <si>
     <t>DMSO (serum)</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
   </si>
   <si>
-    <t>Cyro-EM</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
-  </si>
-  <si>
     <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-12T09:42:42-07:00</t>
+    <t>2024-03-14T10:53:58-04:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1395,18 +1395,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -576,7 +576,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-14T10:53:58-04:00</t>
+    <t>2024-03-18T09:38:41-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
   <si>
     <t>source_id</t>
   </si>
@@ -279,6 +279,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000126</t>
   </si>
   <si>
+    <t>Alpha-MEM</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000371</t>
+  </si>
+  <si>
     <t>2% PFA/2.5% Glutaraldehyde</t>
   </si>
   <si>
@@ -315,6 +321,18 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
   </si>
   <si>
+    <t>Modified Davidson's Fixative</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000370</t>
+  </si>
+  <si>
+    <t>HPMC-PVP</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000386</t>
+  </si>
+  <si>
     <t>Inflated (Agarose)</t>
   </si>
   <si>
@@ -345,6 +363,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
   </si>
   <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000372</t>
+  </si>
+  <si>
     <t>RNAlater</t>
   </si>
   <si>
@@ -375,6 +399,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000147</t>
   </si>
   <si>
+    <t>Lysis buffer</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C178573</t>
+  </si>
+  <si>
     <t>preparation_condition</t>
   </si>
   <si>
@@ -435,6 +465,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
   </si>
   <si>
+    <t>Formic acid in water</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83719</t>
+  </si>
+  <si>
     <t>DMSO (no serum)</t>
   </si>
   <si>
@@ -480,6 +516,12 @@
     <t>storage_method</t>
   </si>
   <si>
+    <t>Stored in desiccator</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000387</t>
+  </si>
+  <si>
     <t>Incubated at 37 degrees celsius</t>
   </si>
   <si>
@@ -531,27 +573,27 @@
     <t>area_unit</t>
   </si>
   <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
+  </si>
+  <si>
     <t>um^2</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0010001</t>
   </si>
   <si>
-    <t>mm^2</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
-  </si>
-  <si>
     <t>is_rehydrated</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -576,7 +618,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-18T09:38:41-07:00</t>
+    <t>2024-06-28T15:47:40-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -725,54 +767,54 @@
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="V2" t="s" s="23">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +827,7 @@
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$26</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$8</formula1>
@@ -798,10 +840,10 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$20</formula1>
+      <formula1>'storage_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_method'!$A$1:$A$11</formula1>
+      <formula1>'storage_method'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -841,12 +883,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -870,30 +912,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,6 +1210,46 @@
       </c>
       <c r="B26" t="s" s="0">
         <v>68</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1185,34 +1267,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1225,26 +1307,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1299,18 +1381,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -1323,10 +1405,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1339,10 +1421,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1355,106 +1437,122 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B21" t="s" s="0">
         <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1472,34 +1570,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1512,50 +1610,58 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>66</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1573,26 +1679,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1610,18 +1716,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -130,7 +130,8 @@
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The index number for the section if the sample is a single section.</t>
+        <t>(Required) The index number for the tissue section. The numbering of the tissue
+sections within a block should start with 1.</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
@@ -166,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
   <si>
     <t>source_id</t>
   </si>
@@ -483,6 +484,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
   </si>
   <si>
+    <t>Concentrated quench buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000391</t>
+  </si>
+  <si>
     <t>Gelatin</t>
   </si>
   <si>
@@ -618,7 +625,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-06-28T15:47:40-07:00</t>
+    <t>2025-01-23T09:53:47-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -779,42 +786,42 @@
         <v>96</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="V2" t="s" s="23">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +847,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$22</formula1>
+      <formula1>'storage_medium'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$12</formula1>
@@ -883,12 +890,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -912,30 +919,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1469,18 +1476,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1501,18 +1508,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -1525,33 +1532,41 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B23" t="s" s="0">
         <v>46</v>
       </c>
     </row>
@@ -1610,26 +1625,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1679,26 +1694,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1716,18 +1731,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
   <si>
     <t>source_id</t>
   </si>
@@ -244,6 +244,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000331</t>
   </si>
   <si>
+    <t>1X fixation &amp; permeabilization buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000425</t>
+  </si>
+  <si>
     <t>Inflated (OCT)</t>
   </si>
   <si>
@@ -460,6 +466,12 @@
     <t>storage_medium</t>
   </si>
   <si>
+    <t>1X quench buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000427</t>
+  </si>
+  <si>
     <t>OCT</t>
   </si>
   <si>
@@ -625,7 +637,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-23T09:53:47-08:00</t>
+    <t>2025-03-27T10:35:47-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -774,54 +786,54 @@
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="V2" t="s" s="23">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +846,7 @@
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$31</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$32</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$8</formula1>
@@ -847,7 +859,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$23</formula1>
+      <formula1>'storage_medium'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$12</formula1>
@@ -890,12 +902,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -919,30 +931,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1257,6 +1269,14 @@
       </c>
       <c r="B31" t="s" s="0">
         <v>78</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1274,66 +1294,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,178 +1408,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -1568,6 +1588,14 @@
       </c>
       <c r="B23" t="s" s="0">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1585,98 +1613,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1694,26 +1722,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1731,18 +1759,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -53,11 +53,11 @@
     <comment ref="D1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
@@ -637,7 +637,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-03-27T10:35:47-07:00</t>
+    <t>2025-04-24T10:45:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -30,136 +30,152 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier for the source (parent) from which
-the sample was taken. Example: HBM122.EFGH.789 or SNT234.RTYU.119</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the source (parent
+data) from which the sample was derived. Example: HBM122.EFGH.789</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier for the sample assigned by the
-ingest portal. Example: HBM743.CKJW.876 or SNT923.UYTE.122</t>
+        <t>(Required) The unique HuBMAP or SenNet identifier assigned to the sample by the
+ingest portal. Example: HBM743.CKJW.876</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) The medium used during the sample preparation</t>
+        <t>(Required) The medium used during the sample preparation process. If no specific
+medium was utilized, enter "None". If medium was not recorded, enter "Unknown".
+Example: Fresh frozen CMC</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) The condition by which the preparation occurred, such as was the
-sample placed in dry ice during the preparation.</t>
+        <t>(Required) The condition under which the sample preparation took place, such as
+whether the sample was placed on dry ice during the process. If preparation
+condition was not recorded, enter "Unknown". Example: Frozen on dry ice</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>How long the tissue was being handled before the initial preservation.</t>
+        <t>The duration for which the tissue was handled prior to its initial preservation.
+Example: 120</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement for the processing time value. If processing time is not
+specified, this field may be left blank. Example: minute</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>(Required) What was the sample preserved in.</t>
+        <t>(Required) The medium used to preserve the sample. If no specific medium was
+utilized, enter "None". If medium was not recorded, enter "Unknown". Example:
+FFPE (Paraffin embedded)</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>(Required) The method by which the sample was stored, after preparation and
-before the assay was performed.</t>
+        <t>(Required) The method used to store the sample after preparation and prior to
+performing the assay. If no specific storage method was utilized, enter "None".
+If storage method was not recorded, enter "Unknown". Example: Frozen in dry ice</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to
-cell lysis or defined by known parameters such as wells with several cells or no
-cells. This can be captured at a high level. "OK" or "not OK", or with more
-specificity such as "debris", "clump", "low clump".</t>
+        <t>The quality criteria used to assess the sample, which may include metrics such
+as RIN (e.g., RIN: 8.7) or visual inspection parameters for suspensions prior to
+cell lysis. These criteria can be captured at a high level with general terms
+like "OK" or "not OK" or with more specific descriptors such as "debris" "clump"
+or "low clump". Example: RIN: 8.7, low clump, no visible debris</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>histopathological reporting of key variables that are important for the tissue
-(absence of necrosis, comment on composition, significant pathology description,
-high level inflammation/fibrosis assessment, etc.)</t>
+        <t>The key variables in the histopathological report that are crucial for assessing
+the tissue, including the absence of necrosis, comments on tissue composition,
+descriptions of significant pathology, and high-level assessments of
+inflammation or fibrosis. Example: No necrosis observed; tissue composed
+predominantly of hepatocytes with mild portal inflammation and minimal fibrosis</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Thickness of the sample section.</t>
+        <t>(Required) The thickness of an object in question. Example: 10</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The thickness unit of measuement</t>
+        <t>(Required) The unit of measurement for the thickness value. If no thickness
+measurement is specified, this field may be left blank. Example: mm</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The index number for the tissue section. The numbering of the tissue
-sections within a block should start with 1.</t>
+        <t>(Required) The index number assigned to the tissue section, with numbering
+beginning at 1 for sections within a block. Example: 1</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The area of the sample section.</t>
+        <t>The area of the object being measured. Example: 100</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>The area unit of measurement</t>
+        <t>The unit of measurement used to define the area. If no area value is specified,
+this field may be left blank. Example: mm^2</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>Was the section rehydrated?</t>
+        <t>Indicates whether the section was rehydrated. Example: No</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>Miscellaneous details about the sample, not captured in the existing metadata
-fields.</t>
+        <t>Miscellaneous details about the sample that are not captured in the existing
+metadata fields. Example: Sample was stored at 4°C for 48 hours prior to
+processing due to equipment maintenance delay</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
-processing.</t>
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
+processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
   </commentList>
@@ -167,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
   <si>
     <t>source_id</t>
   </si>
@@ -466,30 +482,54 @@
     <t>storage_medium</t>
   </si>
   <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65147</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
+  </si>
+  <si>
+    <t>DMSO (no serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>DMSO (serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
+  </si>
+  <si>
     <t>1X quench buffer</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000427</t>
   </si>
   <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
-  </si>
-  <si>
     <t>Formic acid in water</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83719</t>
   </si>
   <si>
-    <t>DMSO (no serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
-  </si>
-  <si>
     <t>Tris-EDTA</t>
   </si>
   <si>
@@ -502,36 +542,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000391</t>
   </si>
   <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
     <t>Cryo-EM</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
   </si>
   <si>
-    <t>DMSO (serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
     <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
   </si>
   <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
-  </si>
-  <si>
     <t>storage_method</t>
   </si>
   <si>
@@ -637,7 +659,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:45:19-07:00</t>
+    <t>2025-10-16T07:27:11-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -798,42 +820,42 @@
         <v>98</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="V2" t="s" s="23">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +881,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$24</formula1>
+      <formula1>'storage_medium'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$12</formula1>
@@ -902,12 +924,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -931,30 +953,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1408,114 +1430,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1528,74 +1550,82 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>48</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1653,26 +1683,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -1722,26 +1752,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1759,18 +1789,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="167">
   <si>
     <t>source_id</t>
   </si>
@@ -236,6 +236,12 @@
     <t>preparation_medium</t>
   </si>
   <si>
+    <t>HTK Solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000152</t>
+  </si>
+  <si>
     <t>NBF (Neutral Buffered Formalin)</t>
   </si>
   <si>
@@ -368,6 +374,12 @@
     <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
   </si>
   <si>
+    <t>UW Solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000151</t>
+  </si>
+  <si>
     <t>MACS tissue storage solution</t>
   </si>
   <si>
@@ -473,6 +485,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
   </si>
   <si>
+    <t>Stored on wet ice</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000465</t>
+  </si>
+  <si>
     <t>processing_time_value</t>
   </si>
   <si>
@@ -659,7 +677,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-16T07:27:11-07:00</t>
+    <t>2025-10-21T13:42:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -808,54 +826,54 @@
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="V2" t="s" s="23">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -868,10 +886,10 @@
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$32</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$8</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -924,12 +942,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -953,30 +971,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1301,6 +1319,22 @@
         <v>80</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1308,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1316,66 +1350,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1430,202 +1472,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1643,98 +1685,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1752,26 +1794,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1789,18 +1831,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/sample-section/latest/sample-section.xlsx
+++ b/sample-section/latest/sample-section.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="169">
   <si>
     <t>source_id</t>
   </si>
@@ -284,6 +284,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185409</t>
   </si>
   <si>
+    <t>Perfadex Plus</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000249</t>
+  </si>
+  <si>
     <t>PFA (Paraformaldehyde)</t>
   </si>
   <si>
@@ -677,7 +683,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-21T13:42:49-07:00</t>
+    <t>2025-11-03T17:31:25-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -826,54 +832,54 @@
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="V2" t="s" s="23">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +892,7 @@
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$34</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$9</formula1>
@@ -942,12 +948,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -971,30 +977,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1333,6 +1339,14 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1350,74 +1364,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1472,18 +1486,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -1504,170 +1518,170 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1685,98 +1699,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1794,26 +1808,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1831,18 +1845,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
